--- a/articles/course_docs/fall_2023_schedule.xlsx
+++ b/articles/course_docs/fall_2023_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/employment/bowdoin/Teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF5DB2A-8347-1345-9886-81AB8D5E1216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF820FA-7CFA-4741-AEF9-D8CD39142949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>[W11: Animal &amp; Machine Theory of Mind](#week-11-animal-and-machine-theory-of-mind)</t>
   </si>
   <si>
-    <t>[W14: Cumulative Culture](#week-14-cumulative-culture)</t>
-  </si>
-  <si>
     <t>[W15: Human Uniqueness](#week-15-human-uniqueness)</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
   </si>
   <si>
     <t>[W12: Consciousness &amp; sentience](#week-12-consciousness-and-sentience)</t>
-  </si>
-  <si>
-    <t>[W8: Grounding](#week-8-grounding)</t>
   </si>
   <si>
     <t>Sunday, October 22, 2023</t>
@@ -258,6 +252,12 @@
   </si>
   <si>
     <t>**Project Milestone #5 (First Draft) Due**</t>
+  </si>
+  <si>
+    <t>[W14: Culture and Conventions](#week-14-culture-and-conventions)</t>
+  </si>
+  <si>
+    <t>[W8: Mental Simulation and Grounding](#week-8-mental-simulation-and-grounding)</t>
   </si>
 </sst>
 </file>
@@ -597,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8867,10 +8867,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8922,10 +8922,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8947,7 +8947,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8972,7 +8972,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18">
+    <row r="17" spans="1:3" ht="34">
       <c r="A17">
         <v>8</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="18">
@@ -8999,10 +8999,10 @@
         <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="18">
@@ -9054,10 +9054,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="34">
@@ -9090,7 +9090,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="18">
@@ -9112,7 +9112,7 @@
         <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="18">
@@ -9134,7 +9134,7 @@
         <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="18">
@@ -9153,10 +9153,10 @@
         <v>14</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="18">
@@ -9167,7 +9167,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="18">
@@ -9186,10 +9186,10 @@
         <v>16</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/fall_2023_schedule.xlsx
+++ b/articles/course_docs/fall_2023_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/employment/bowdoin/Teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/employment/bowdoin/Teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF820FA-7CFA-4741-AEF9-D8CD39142949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8844C1-2090-2445-A1E6-AF46B77007E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,99 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
   <si>
     <t>Week</t>
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Thursday, August 31, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, September 5, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, September 7, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, September 12, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, September 14, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, September 21, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, September 26, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, September 28, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, October 3, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, October 5, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, October 10, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, October 12, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, October 17, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, October 19, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, October 24, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, October 26, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, October 31, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, November 2, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, November 7, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, November 9, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, November 14, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, November 16, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, November 21, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, November 23, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, November 28, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, November 30, 2023</t>
-  </si>
-  <si>
-    <t>Tuesday, December 5, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, December 7, 2023</t>
-  </si>
-  <si>
-    <t>Thursday, September 19, 2023</t>
   </si>
   <si>
     <t>**Fall Break!! NO CLASS**</t>
@@ -215,40 +128,22 @@
     <t>[W12: Consciousness &amp; sentience](#week-12-consciousness-and-sentience)</t>
   </si>
   <si>
-    <t>Sunday, October 22, 2023</t>
-  </si>
-  <si>
     <t>**Project Milestone #3 (QALMRI/SPARK) Due**</t>
   </si>
   <si>
     <t>Project Discussion</t>
   </si>
   <si>
-    <t>Sunday, September, 17, 2023</t>
-  </si>
-  <si>
     <t>**Project Milestone #1 (Project Selection) Due**</t>
-  </si>
-  <si>
-    <t>Sunday, October 1, 2023</t>
   </si>
   <si>
     <t>**Project Milestone #2 (Aspect of Intelligence) Due**</t>
   </si>
   <si>
-    <t>Sunday, November 5, 2023</t>
-  </si>
-  <si>
     <t>**Project Milestone #4 (Project Plan) Due**</t>
   </si>
   <si>
-    <t>Sunday, December 17, 2023</t>
-  </si>
-  <si>
     <t>**Project Milestone #6 (Final Project) Due**</t>
-  </si>
-  <si>
-    <t>Sunday, December 3, 2023</t>
   </si>
   <si>
     <t>**Project Milestone #5 (First Draft) Due**</t>
@@ -259,13 +154,25 @@
   <si>
     <t>[W8: Mental Simulation and Grounding](#week-8-mental-simulation-and-grounding)</t>
   </si>
+  <si>
+    <t>Discussion Type</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#118271"&gt;Prof&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#AE8413"&gt;Solo&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>&lt;span style="color:#991293"&gt;Group&lt;/span&gt;</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -312,9 +219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,15 +504,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="72" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="17">
@@ -616,40 +524,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="49" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
+      <c r="B2" s="3">
+        <v>45169</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
+      <c r="B3" s="3">
+        <v>45174</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
+      <c r="B4" s="3">
+        <v>45176</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -8844,352 +8764,421 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
+      <c r="B5" s="3">
+        <v>45181</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
+      <c r="B6" s="3">
+        <v>45183</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>61</v>
+      <c r="B7" s="3">
+        <v>45186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>30</v>
+      <c r="B8" s="3">
+        <v>45188</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A9">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>7</v>
+      <c r="B9" s="3">
+        <v>45190</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A10">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
+      <c r="B10" s="3">
+        <v>45195</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A11">
         <v>5</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
+      <c r="B11" s="3">
+        <v>45197</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>63</v>
+      <c r="B12" s="3">
+        <v>45200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
+      <c r="B13" s="3">
+        <v>45202</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
+      <c r="B14" s="3">
+        <v>45204</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
+      <c r="B15" s="4">
+        <v>45209</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
       <c r="A16">
         <v>7</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3">
+        <v>45211</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>51</v>
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34">
+    <row r="17" spans="1:4" ht="34">
       <c r="A17">
         <v>8</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3">
+        <v>45216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18">
+    <row r="18" spans="1:4" ht="18">
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3">
+        <v>45218</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18">
+    <row r="19" spans="1:4" ht="18">
       <c r="A19">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>58</v>
+      <c r="B19" s="3">
+        <v>45221</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20">
         <v>9</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>16</v>
+      <c r="B20" s="3">
+        <v>45223</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18">
+    <row r="21" spans="1:4" ht="18">
       <c r="A21">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>17</v>
+      <c r="B21" s="3">
+        <v>45225</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18">
+    <row r="22" spans="1:4" ht="18">
       <c r="A22">
         <v>10</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>18</v>
+      <c r="B22" s="3">
+        <v>45230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
+      <c r="B23" s="3">
+        <v>45232</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24">
         <v>10</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>65</v>
+      <c r="B24" s="3">
+        <v>45235</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="34">
+    <row r="25" spans="1:4" ht="34">
       <c r="A25">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>20</v>
+      <c r="B25" s="3">
+        <v>45237</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18">
+    <row r="26" spans="1:4" ht="18">
       <c r="A26">
         <v>11</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>21</v>
+      <c r="B26" s="3">
+        <v>45239</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18">
+    <row r="27" spans="1:4" ht="18">
       <c r="A27">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>22</v>
+      <c r="B27" s="3">
+        <v>45244</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18">
+    <row r="28" spans="1:4" ht="18">
       <c r="A28">
         <v>12</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>23</v>
+      <c r="B28" s="3">
+        <v>45246</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18">
+    <row r="29" spans="1:4" ht="18">
       <c r="A29">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>24</v>
+      <c r="B29" s="3">
+        <v>45251</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="18">
+    <row r="30" spans="1:4" ht="18">
       <c r="A30">
         <v>13</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>25</v>
+      <c r="B30" s="4">
+        <v>45253</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="18">
+    <row r="31" spans="1:4" ht="18">
       <c r="A31">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>26</v>
+      <c r="B31" s="3">
+        <v>45258</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="18">
+    <row r="32" spans="1:4" ht="18">
       <c r="A32">
         <v>14</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>27</v>
+      <c r="B32" s="3">
+        <v>45260</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="18">
+    <row r="33" spans="1:4" ht="18">
       <c r="A33">
         <v>14</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>69</v>
+      <c r="B33" s="3">
+        <v>45263</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="18">
+    <row r="34" spans="1:4" ht="18">
       <c r="A34">
         <v>15</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>28</v>
+      <c r="B34" s="3">
+        <v>45265</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="18">
+    <row r="35" spans="1:4" ht="18">
       <c r="A35">
         <v>15</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>29</v>
+      <c r="B35" s="3">
+        <v>45267</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="17">
+    <row r="36" spans="1:4" ht="17">
       <c r="A36">
         <v>16</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>67</v>
+      <c r="B36" s="2">
+        <v>45277</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/articles/course_docs/fall_2023_schedule.xlsx
+++ b/articles/course_docs/fall_2023_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/Documents/employment/bowdoin/Teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/employment/bowdoin/Teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8844C1-2090-2445-A1E6-AF46B77007E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D96AE4-AB41-C84C-AD47-5BC3EDDD7B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22580" yWindow="2700" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -219,9 +219,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -8891,7 +8891,7 @@
         <v>30</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8916,7 +8916,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34">
@@ -8997,7 +8997,7 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
@@ -9050,7 +9050,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
@@ -9089,7 +9089,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9114,7 +9114,7 @@
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18">

--- a/articles/course_docs/fall_2023_schedule.xlsx
+++ b/articles/course_docs/fall_2023_schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/employment/bowdoin/Teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.kumar/Library/Mobile Documents/com~apple~CloudDocs/Documents/teaching/courses/PSYC 3043/mindsandmachines/articles/course_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D96AE4-AB41-C84C-AD47-5BC3EDDD7B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C095E903-5DBA-3944-A86E-CAF53D9BBA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="2700" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54240" yWindow="10340" windowWidth="30240" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>[W7: Perceptual Learning](#week-7-perceptual-learning)</t>
   </si>
   <si>
-    <t>[W9: Modeling perception](#week-9-modeling-perception)</t>
-  </si>
-  <si>
     <t>[W10: Theory of Mind](#week-10-theory-of-mind)</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
     <t>[W14: Culture and Conventions](#week-14-culture-and-conventions)</t>
   </si>
   <si>
-    <t>[W8: Mental Simulation and Grounding](#week-8-mental-simulation-and-grounding)</t>
-  </si>
-  <si>
     <t>Discussion Type</t>
   </si>
   <si>
@@ -165,6 +159,12 @@
   </si>
   <si>
     <t>&lt;span style="color:#991293"&gt;Group&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>[W8: Modeling perception](#week-8-modeling-perception)</t>
+  </si>
+  <si>
+    <t>[W9: Emotional learning](#week-9-emotional-learning)</t>
   </si>
 </sst>
 </file>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -527,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="49" customHeight="1">
@@ -541,7 +541,7 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -555,7 +555,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" s="1" customFormat="1" ht="18">
@@ -569,7 +569,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4"/>
       <c r="G4"/>
@@ -8771,7 +8771,7 @@
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8785,7 +8785,7 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8796,7 +8796,7 @@
         <v>45186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8810,7 +8810,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8824,7 +8824,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8838,7 +8838,7 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8852,7 +8852,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8863,7 +8863,7 @@
         <v>45200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8877,7 +8877,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8888,10 +8888,10 @@
         <v>45204</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1023 1026:2047 2050:3071 3074:4095 4098:5119 5122:6143 6146:7167 7170:8191 8194:9215 9218:10239 10242:11263 11266:12287 12290:13311 13314:14335 14338:15359 15362:16379" ht="18">
@@ -8916,10 +8916,10 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17">
         <v>8</v>
       </c>
@@ -8927,10 +8927,10 @@
         <v>45216</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18">
@@ -8944,7 +8944,7 @@
         <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18">
@@ -8955,7 +8955,7 @@
         <v>45221</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18">
@@ -8966,10 +8966,10 @@
         <v>45223</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18">
@@ -8983,7 +8983,7 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18">
@@ -8994,10 +8994,10 @@
         <v>45230</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="18">
@@ -9011,7 +9011,7 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18">
@@ -9022,7 +9022,7 @@
         <v>45235</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34">
@@ -9033,10 +9033,10 @@
         <v>45237</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18">
@@ -9050,7 +9050,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18">
@@ -9061,10 +9061,10 @@
         <v>45244</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18">
@@ -9086,10 +9086,10 @@
         <v>45251</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18">
@@ -9111,10 +9111,10 @@
         <v>45258</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="18">
@@ -9128,7 +9128,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18">
@@ -9139,7 +9139,7 @@
         <v>45263</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="18">
@@ -9150,10 +9150,10 @@
         <v>45265</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="18">
@@ -9167,7 +9167,7 @@
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17">
@@ -9178,7 +9178,7 @@
         <v>45277</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
